--- a/01_ProjectPlanning/06_Effort Estimation/EffortEstimation.xlsx
+++ b/01_ProjectPlanning/06_Effort Estimation/EffortEstimation.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24729"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\if.05.61_01-project-repository\07_Templates\06_Effort Estimation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Florian\3.Klasse\SYP\FoodScanner\01_ProjectPlanning\06_Effort Estimation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0FF28539-DD8C-4B08-B8BB-698908783864}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAAEEB9-3755-4F1D-8697-19FAE0437199}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{22017C2C-4C73-49B3-929E-53493B14A2DD}"/>
   </bookViews>
@@ -485,7 +485,7 @@
   <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O3" sqref="O3"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,6 +570,16 @@
       <c r="B9">
         <v>10</v>
       </c>
+      <c r="C9">
+        <v>16</v>
+      </c>
+      <c r="D9">
+        <v>6</v>
+      </c>
+      <c r="E9">
+        <f>C9-D9</f>
+        <v>10</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
